--- a/Residuos/Model/t1_confection/A2_Structure_Lists.xlsx
+++ b/Residuos/Model/t1_confection/A2_Structure_Lists.xlsx
@@ -148,19 +148,19 @@
     <t>E5_TWWTWW</t>
   </si>
   <si>
+    <t>WTRU</t>
+  </si>
+  <si>
+    <t>FERT_ORG</t>
+  </si>
+  <si>
+    <t>HWT</t>
+  </si>
+  <si>
+    <t>CO2e</t>
+  </si>
+  <si>
     <t>RM</t>
-  </si>
-  <si>
-    <t>WTRU</t>
-  </si>
-  <si>
-    <t>CO2e</t>
-  </si>
-  <si>
-    <t>HWT</t>
-  </si>
-  <si>
-    <t>FERT_ORG</t>
   </si>
   <si>
     <t>ECU</t>
